--- a/Mathias/Num/rødder intervalmetoder/Bisect.xlsx
+++ b/Mathias/Num/rødder intervalmetoder/Bisect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab git\Mathias\Num\rødder intervalmetoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1886CBAC-EACB-4A82-93F7-75A9B7A09EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7A6991-6343-4D9A-8C9C-1F2E57F6462D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
